--- a/documentation/Variable Distributions_blank.xlsx
+++ b/documentation/Variable Distributions_blank.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\PersonalWork_SD\Lynda\BRFSS Descriptive Exercise Files\Exercise Files\Ch04\04_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA44EDD8-333A-4A18-B7A1-B90E76FF659F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="17232" windowHeight="8016"/>
+    <workbookView xWindow="-9810" yWindow="-13005" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asthma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +516,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -545,7 +552,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -883,19 +896,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -911,7 +924,7 @@
         <v>52788</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,7 +932,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
@@ -930,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,7 +957,7 @@
         <v>8541</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
